--- a/Python para Dados/AT/Mini-Projeto2/usuarios-consolidados.xlsx
+++ b/Python para Dados/AT/Mini-Projeto2/usuarios-consolidados.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,396 +436,368 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>id</t>
+          <t>nome_completo</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>nome_completo</t>
+          <t>data_nascimento</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>data_nascimento</t>
+          <t>email</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>email</t>
+          <t>cidade</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>cidade</t>
+          <t>estado</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>estado</t>
+          <t>consoles</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>consoles</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
           <t>jogos_preferidos</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
-        <v>1</v>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>João Silva</t>
+        </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>João Silva</t>
+          <t>1985-07-20</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>1985-07-20</t>
+          <t>joao.silva@example.com</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>joao.silva@example.com</t>
+          <t>Rio de Janeiro</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Rio de Janeiro</t>
+          <t>RJ</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>RJ</t>
+          <t>PS5|Xbox Series X</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
+          <t>The Last of Us|Halo Infinite|FIFA 21|Cyberpunk 2077|GTA V</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Pedro Souza</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>1978-03-15</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>pedro.souza@example.com</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Salvador</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>BA</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Xbox One|PS5</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Red Dead Redemption 2|Forza Horizon 4|Spider-Man|Bloodborne|Fortnite</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Ana Costa</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2000-02-30</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>ana.costa@example.com</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Fortaleza</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>CE</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Switch|PS4</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Super Mario Odyssey|The Witcher 3|Metroid Dread|Hades|Splatoon 2</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Clara Mendes</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>1995-06-30</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>clara.mendes@example.com</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>São Paulo</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Não definido</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>PS5|Switch</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Final Fantasy VII Remake|Celeste|Persona 5|Hollow Knight|Monster Hunter Rise</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Bruno Almeida</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>1992-12-10</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>bruno.almeida@example.com</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Porto Alegre</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>RS</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Xbox One|PS4</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Gears 5|Death Stranding|Ghost of Tsushima|Sekiro|Horizon Zero Dawn</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Maria Oliveira</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>1990-11-05</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>maria.oliveira@example.com</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Curitiba</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>PR</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Não definido</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Zelda Breath of the Wild|Mario Kart 8|Animal Crossing</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Lucas Martins</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>1998-09-25</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>lucas.martins@example.com</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Recife</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>PE</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
           <t>PS5|Xbox Series X</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>The Last of Us|Halo Infinite|FIFA 21|Cyberpunk 2077|GTA V</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>3</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Pedro Souza</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>1978-03-15</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>pedro.souza@example.com</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Salvador</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>BA</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>Xbox One|PS5</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>Red Dead Redemption 2|Forza Horizon 4|Spider-Man|Bloodborne|Fortnite</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>4</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Ana Costa</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>2000-02-30</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>ana.costa@example.com</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Fortaleza</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>CE</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>Switch|PS4</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>Super Mario Odyssey|The Witcher 3|Metroid Dread|Hades|Splatoon 2</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>7</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Clara Mendes</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>1995-06-30</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>clara.mendes@example.com</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>São Paulo</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Valor Padrão</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>PS5|Switch</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>Final Fantasy VII Remake|Celeste|Persona 5|Hollow Knight|Monster Hunter Rise</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>8</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Bruno Almeida</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>1992-12-10</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>bruno.almeida@example.com</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Porto Alegre</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>RS</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>Xbox One|PS4</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>Gears 5|Death Stranding|Ghost of Tsushima|Sekiro|Horizon Zero Dawn</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>9</v>
-      </c>
-      <c r="B7" t="inlineStr">
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Demon's Souls|Yakuza Like a Dragon|Returnal|Resident Evil 3|Ghost of Tsushima</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Luiz Pereira</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>1982-08-19</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>luiz.pereira@example.com</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Belo Horizonte</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>MG</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>PS5|Xbox Series X</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Assassin's Creed Valhalla|Doom Eternal|Resident Evil Village|Sekiro|Control</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
         <is>
           <t>Maria Oliveira</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>1990-11-05</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>1999-11-05</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
         <is>
           <t>maria.oliveira@example.com</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>Curitiba</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>PR</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>Valor Padrão</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>Zelda Breath of the Wild|Mario Kart 8|Animal Crossing</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>10</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Lucas Martins</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>1998-09-25</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>lucas.martins@example.com</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Recife</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>PE</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>PS5|Xbox Series X</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>Demon's Souls|Yakuza Like a Dragon|Returnal|Resident Evil 3|Ghost of Tsushima</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>5</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Luiz Pereira</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>1982-08-19</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>luiz.pereira@example.com</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>Belo Horizonte</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>MG</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>PS5|Xbox Series X</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>Assassin's Creed Valhalla|Doom Eternal|Resident Evil Village|Sekiro|Control</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>9</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Maria Oliveira</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>1999-11-05</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>maria.oliveira@example.com</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>Curitiba</t>
-        </is>
-      </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>PR</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr">
+          <t>Não definido</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
         <is>
           <t>Zelda Breath of the Wild|Uncharted 4|Mario Kart 8|Animal Crossing|Overwatch</t>
         </is>

--- a/Python para Dados/AT/Mini-Projeto2/usuarios-consolidados.xlsx
+++ b/Python para Dados/AT/Mini-Projeto2/usuarios-consolidados.xlsx
@@ -602,11 +602,7 @@
           <t>São Paulo</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Não definido</t>
-        </is>
-      </c>
+      <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr">
         <is>
           <t>PS5|Switch</t>
@@ -681,11 +677,7 @@
           <t>PR</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Não definido</t>
-        </is>
-      </c>
+      <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr">
         <is>
           <t>Zelda Breath of the Wild|Mario Kart 8|Animal Crossing</t>
@@ -792,11 +784,7 @@
           <t>PR</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>Não definido</t>
-        </is>
-      </c>
+      <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr">
         <is>
           <t>Zelda Breath of the Wild|Uncharted 4|Mario Kart 8|Animal Crossing|Overwatch</t>

--- a/Python para Dados/AT/Mini-Projeto2/usuarios-consolidados.xlsx
+++ b/Python para Dados/AT/Mini-Projeto2/usuarios-consolidados.xlsx
@@ -602,7 +602,11 @@
           <t>São Paulo</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr"/>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Não definido</t>
+        </is>
+      </c>
       <c r="F5" t="inlineStr">
         <is>
           <t>PS5|Switch</t>
@@ -677,7 +681,11 @@
           <t>PR</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr"/>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Não definido</t>
+        </is>
+      </c>
       <c r="G7" t="inlineStr">
         <is>
           <t>Zelda Breath of the Wild|Mario Kart 8|Animal Crossing</t>
@@ -784,7 +792,11 @@
           <t>PR</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr"/>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Não definido</t>
+        </is>
+      </c>
       <c r="G10" t="inlineStr">
         <is>
           <t>Zelda Breath of the Wild|Uncharted 4|Mario Kart 8|Animal Crossing|Overwatch</t>
